--- a/Python30.xlsx
+++ b/Python30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPword\Desktop\test_git\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nishant\my_projet\python\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459B203C-97AC-4D19-9DC2-1847F3F65D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E721BC4-E41D-4418-87D9-A5B5900A2D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Manish</t>
   </si>
   <si>
-    <t>Nishant</t>
+    <t>Nishant kathe</t>
   </si>
 </sst>
 </file>
@@ -363,15 +363,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -387,7 +389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -395,7 +397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
